--- a/结果/resob11191050.xlsx
+++ b/结果/resob11191050.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E0E12E28-1A1D-44B0-980A-A5551ABF3AE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C2A1CE1-91DC-4726-8A7B-7791D358CE7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>create</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,6 +41,30 @@
     <t>optimization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>？？？？？？？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -58,6 +82,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -410,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -486,7 +511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -556,11 +581,17 @@
       <c r="W2">
         <v>22.281699565071929</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -630,11 +661,17 @@
       <c r="W3">
         <v>38.03821431716122</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -704,8 +741,14 @@
       <c r="W4">
         <v>27.63446475195822</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -775,8 +818,14 @@
       <c r="W5">
         <v>10.29998265996185</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -846,11 +895,17 @@
       <c r="W6">
         <v>0.19234879247702499</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -920,11 +975,17 @@
       <c r="W7">
         <v>15.967294045047829</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -994,11 +1055,17 @@
       <c r="W8">
         <v>38.464826053508837</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1068,8 +1135,14 @@
       <c r="W9">
         <v>13.535449988063981</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1139,8 +1212,14 @@
       <c r="W10">
         <v>19.723001402524542</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1210,8 +1289,14 @@
       <c r="W11">
         <v>37.353171495693033</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1281,8 +1366,14 @@
       <c r="W12">
         <v>15.783879539415411</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1352,8 +1443,14 @@
       <c r="W13">
         <v>17.10526315789474</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1423,8 +1520,14 @@
       <c r="W14">
         <v>18.22635962763351</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1494,8 +1597,14 @@
       <c r="W15">
         <v>8.7419056429232196</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1565,8 +1674,14 @@
       <c r="W16">
         <v>26.646611779607351</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1636,8 +1751,14 @@
       <c r="W17">
         <v>12.98076923076923</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1707,8 +1828,14 @@
       <c r="W18">
         <v>41.004896742601673</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1778,8 +1905,14 @@
       <c r="W19">
         <v>30.726872246696029</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1849,8 +1982,14 @@
       <c r="W20">
         <v>60.601719197707737</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1920,8 +2059,14 @@
       <c r="W21">
         <v>15.75736139358033</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1991,8 +2136,14 @@
       <c r="W22">
         <v>44.659179942543737</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2062,8 +2213,14 @@
       <c r="W23">
         <v>34.447563153865779</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2132,6 +2289,110 @@
       </c>
       <c r="W24">
         <v>23.92834064930145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
